--- a/spreadsheet/macrofree/aro_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.ja.xlsx
@@ -7266,6 +7266,11 @@
           <t>未確認</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/Azure/review-checklists/main/checklists/</t>
@@ -7298,6 +7303,11 @@
           <t>開ける</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ネットワーク トポロジと接続性</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>このチェックに関連付けられているアクションアイテムがあります</t>
@@ -7320,6 +7330,11 @@
           <t>達成</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>運用管理</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
@@ -7337,6 +7352,11 @@
           <t>必須ではありません</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
@@ -7352,6 +7372,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>該当なし</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安全</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.ja.xlsx
@@ -1687,11 +1687,7 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
         </is>
       </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
@@ -1737,11 +1733,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
         </is>
       </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
@@ -1787,11 +1779,7 @@
           <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
@@ -1837,11 +1825,7 @@
           <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
         </is>
       </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
@@ -1887,11 +1871,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
@@ -1983,11 +1963,6 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
@@ -2033,11 +2008,6 @@
           <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
-        </is>
-      </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
@@ -2083,11 +2053,6 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
@@ -2133,11 +2098,6 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
@@ -2183,11 +2143,6 @@
           <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
@@ -2233,11 +2188,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
         </is>
       </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
@@ -2283,11 +2234,7 @@
           <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
@@ -2563,11 +2510,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
         </is>
       </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
@@ -2613,11 +2556,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
         </is>
       </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
@@ -2663,11 +2602,7 @@
           <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.ja.xlsx
@@ -1059,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1105,7 +1105,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>AAD を使用して、ARO クラスター内のユーザーを認証します。</t>
+          <t>AAD を使用して ARO クラスター内のユーザーを認証します。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1151,7 +1151,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1161,15 +1161,11 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>OpenShift プロジェクトを定義して、RBAC 特権を制限し、クラスター内のワークロードを分離します。</t>
+          <t>AAD 認証を使用する場合は、クラスターから kubeadmin ユーザーを削除します。</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1178,7 +1174,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
+          <t>https://docs.openshift.com/container-platform/4.14/authentication/remove-kubeadmin.html</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1182,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
+          <t>adfec5f9-a82d-46e9-a8d1-5a0c7fed5d15</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1197,7 +1193,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1207,13 +1203,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>OpenShift で必要な RBAC ロールをプロジェクトまたはクラスターのいずれかにスコープで定義します。</t>
+          <t>OpenShift プロジェクトを定義して、RBAC 権限を制限し、クラスター内のワークロードを分離します。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1224,7 +1220,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1228,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
+          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1243,7 +1239,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1253,7 +1249,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>管理者権限とシークレットアクセス権を持つユーザーの数を最小限に抑えます。</t>
+          <t>OpenShift で必要な RBAC ロールの定義は、プロジェクトまたはクラスターのいずれかにスコープされます。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1266,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1274,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
+          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1289,7 +1285,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>特権ロールを持つ ARO ユーザーに対して、AAD で特権 ID 管理を使用します。</t>
+          <t>管理者権限とシークレットアクセス権を持つユーザーの数を最小限に抑えます。</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1316,7 +1312,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1324,7 +1320,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
+          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1335,23 +1331,23 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>DDoS</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>一元化されたサブスクリプションで Azure Firewall または WAF を使用しない限り、Azure DDoS ネットワーク/IP 保護を使用して、ARO クラスターに使用する仮想ネットワークを保護します</t>
+          <t>特権ロールを持つ ARO ユーザーには、AAD の Privileged Identity Management を使用します。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1362,7 +1358,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1370,7 +1366,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
+          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1381,23 +1377,23 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>DDoS攻撃</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>イングレスを使用するように構成するすべての Web アプリケーションは、TLS 暗号化を使用する必要があり、暗号化されていない HTTP 経由のアクセスを許可しないでください。</t>
+          <t>Azure DDoS Network/IP Protection を使用して、一元化されたサブスクリプションで Azure Firewall または WAF を使用しない限り、ARO クラスターに使用する仮想ネットワークを保護します</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1416,7 +1412,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>35bda433-24f1-4481-8533-182aa5174269</t>
+          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1427,23 +1423,23 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF を使用して、特に複数リージョン環境で ARO アプリケーションをインターネットに安全に発行します。</t>
+          <t>イングレスを使用するように構成するすべての Web アプリケーションでは、TLS 暗号化を使用する必要があり、暗号化されていない HTTP 経由のアクセスを許可しないでください。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,7 +1450,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1462,7 +1458,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
+          <t>35bda433-24f1-4481-8533-182aa5174269</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1473,7 +1469,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door を使用して ARO でアプリを公開する場合は、プライベート リンクを使用して Front Door を ARO ルーターに接続します。</t>
+          <t>Azure Front Door と WAF を使用して、特にマルチリージョン環境で ARO アプリケーションをインターネットに安全に発行します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1500,7 +1496,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1508,7 +1504,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
+          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1519,7 +1515,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1529,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ ポリシーで、ARO クラスターで生成されるすべての送信インターネット トラフィックを検査する必要がある場合は、Azure Firewall または NVA を使用してエグレス ネットワーク トラフィックをセキュリティで保護します。</t>
+          <t>Azure Front Door を使用して ARO でアプリを公開する場合は、プライベート リンクを使用して Front Door を ARO ルーターに接続します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1542,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1550,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>be985190-4838-435c-a86b-b2912155a114</t>
+          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1565,23 +1561,23 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>プライベートアクセス</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>セキュリティポリシーで OpenShift API にプライベート IP アドレスを使用する必要がある場合は、プライベート ARO クラスターをデプロイします。</t>
+          <t>セキュリティ ポリシーで、ARO クラスターで生成されたすべての送信インターネット トラフィックを検査する必要がある場合は、Azure Firewall または NVA を使用してエグレス ネットワーク トラフィックをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1588,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1596,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
+          <t>be985190-4838-435c-a86b-b2912155a114</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1611,7 +1607,7 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
@@ -1621,13 +1617,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Azure プライベート リンクを使用して、マネージド Azure サービス (Azure コンテナー レジストリを含む) へのネットワーク接続をセキュリティで保護します。</t>
+          <t>セキュリティーポリシーで OpenShift API にプライベート IP アドレスを使用する必要がある場合は、プライベート ARO クラスターをデプロイします。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1638,7 +1634,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1646,7 +1642,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
+          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1657,23 +1653,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>運用管理</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>プライベートアクセス</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>組み込みのPrometheus、OpenShiftロギング、またはコンテナインサイトの統合を使用して監視プロセスを確立します。</t>
+          <t>Azure Private Link を使用して、Azure Container Registry など、マネージド Azure サービスへのネットワーク接続をセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,19 +1680,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
+          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1717,13 +1709,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>DevOps プラクティスと CI/CD ソリューション (OpenShift によって提供されるパイプライン/GitOps など) を通じて、アプリケーション デリバリ プロセスを自動化します。</t>
+          <t>組み込みの Prometheus、OpenShift Logging、または Container Insights 統合を使用して監視プロセスを確立します。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1734,19 +1726,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
+          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1767,13 +1755,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、コンテナー内からサービスの状態を削除します。代わりに、マルチリージョン レプリケーションをサポートするサービスとしての Azure プラットフォーム (PaaS) を使用します。</t>
+          <t>DevOps プラクティスと CI/CD ソリューション (OpenShift が提供する Pipelines/GitOps など) を通じて、アプリケーション配信プロセスを自動化します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1784,19 +1772,15 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
+          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1817,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Azure ファイル ストレージ クラスで RWX ストレージを使用します。</t>
+          <t>可能な限り、コンテナー内からサービス状態を削除します。代わりに、複数リージョンのレプリケーションをサポートする Azure のサービスとしてのプラットフォーム (PaaS) を使用します。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1834,19 +1818,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/design-principles/managed-services</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
+          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1862,18 +1842,18 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>ポッドの要求と制限を使用して、クラスター内のコンピューティング リソースを管理します。</t>
+          <t>組み込みの Azure Files ストレージ クラスで RWX ストレージを使用します。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1884,19 +1864,15 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
+          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1917,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>プロジェクトにリソース クォータを適用します。</t>
+          <t>ポッドの要求と制限を使用して、クラスター内のコンピューティング リソースを管理します。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1934,7 +1910,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1942,7 +1918,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
+          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1963,13 +1939,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>クラスター自動スケーラーとマシン自動スケーラーを定義して、クラスターのリソースが不足したときにマシンをスケーリングし、より多くのデプロイをサポートします。</t>
+          <t>プロジェクトにリソースクォータを適用します。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1980,19 +1956,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
+          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2008,12 +1979,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>複数のコンテナインスタンスを含むのに十分な大きさの仮想マシンサイズを使用して、密度を高めるというメリットを享受しますが、クラスターが障害が発生したノードのワークロードを処理できないほど大きくしないでください。</t>
+          <t>ClusterAutoScaler と MachineAutoScaler を定義して、クラスターのリソースが不足したときにマシンをスケーリングし、より多くのデプロイをサポートします。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2030,19 +2001,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
+          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2063,7 +2029,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>マシンの正常性チェックを展開して、マシン プール内の損傷したマシンを自動的に修復します。</t>
+          <t>複数のコンテナー インスタンスを格納するのに十分な大きさの仮想マシン サイズを使用して、密度を高めるというメリットを享受できますが、クラスターが障害が発生したノードのワークロードを処理できないほど大きくはありません。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2080,19 +2046,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
+          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,7 +2074,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>アラート システムを使用して、直接的なアクションが必要な場合に通知を提供します (コンテナー インサイト メトリック アラートまたは組み込みのアラート UI)。</t>
+          <t>マシンの正常性チェックを展開して、マシン プール内の損傷したマシンを自動的に修復します。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2130,19 +2091,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
+          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2163,7 +2119,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>クラスターが AZ をサポートするリージョンに作成されていることを確認し、AZ ごとにマシンセットを作成します。</t>
+          <t>アラート システムを使用して、直接的なアクションが必要なときに通知を提供します (Container Insights メトリック アラートまたは組み込みのアラート UI)。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2180,19 +2136,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
+          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2213,13 +2164,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>インフラストラクチャコンポーネントを保持するインフラストラクチャマシンセットを作成します。これらのマシンに特定の Kubernetes ラベルを適用し、それらのマシンでのみ実行されるようにインフラストラクチャ コンポーネントを更新します。</t>
+          <t>クラスターが AZ をサポートするリージョンに作成されていることを確認し、AZ ごとにマシンセットを作成します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2230,19 +2181,15 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
+          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2263,13 +2210,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションのバックアップを作成し、復元を計画し、バックアップに永続ボリュームを含めます。</t>
+          <t>インフラストラクチャ コンポーネントを保持するインフラストラクチャ マシン セットを作成します。これらのマシンに特定の Kubernetes ラベルを適用し、それらのマシンでのみ実行するようにインフラストラクチャ コンポーネントを更新します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2280,19 +2227,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
+          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2313,13 +2256,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>ポッドの優先順位を使用して、リソースが限られている場合に最も重要なポッドが実行されるようにします。</t>
+          <t>アプリケーションのバックアップを作成し、復元を計画し、バックアップに永続ボリュームを含めます。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,7 +2273,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2338,7 +2281,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
+          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2354,12 +2297,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>セキュリティー・ポリシー、リソース制限、または構成要件を適用するために一般的に使用されるアドミッション・プラグインを使用して、クラスター機能を規制します。</t>
+          <t>ポッドの優先順位を使用して、リソースが限られている場合に最も重要なポッドが実行されるようにします。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2376,7 +2319,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2384,7 +2327,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
+          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2405,7 +2348,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>コンテナー イメージを Azure コンテナー レジストリに格納し、レジストリを各リージョンに geo レプリケートします。</t>
+          <t>セキュリティポリシー、リソース制限、または構成要件を適用するために一般的に使用されるアドミッションプラグインを使用して、クラスタ機能を規制します。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2422,7 +2365,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2430,7 +2373,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
+          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,18 +2389,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>ワークロード</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>CPU とメモリの要求値を最適化し、垂直ポッド オートスケーラーを使用してクラスター リソースの効率を最大化します。</t>
+          <t>コンテナー イメージを Azure Container Registry に格納し、レジストリを各リージョンに geo レプリケートします。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2468,7 +2411,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2476,7 +2419,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
+          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2497,7 +2440,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>正常性プローブをポッドに追加して、アプリケーションの正常性を監視します。ポッドに活性プローブと準備プローブが含まれていることを確認してください。スタートアップ プローブを使用して、アプリケーションが起動した時点を判別します。</t>
+          <t>CPU とメモリの要求値を最適化し、垂直ポッド オートスケーラーを使用してクラスター リソースの効率を最大化します。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2514,7 +2457,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2522,7 +2465,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
+          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2543,7 +2486,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>ポッドの水平オートスケーラーを使用して、需要に合わせてポッドをスケーリングします。</t>
+          <t>正常性プローブをポッドに追加して、アプリケーションの正常性を監視します。ポッドに livenessProbe と readinessProbe が含まれていることを確認します。スタートアッププローブを使用して、アプリケーションが起動したポイントを判別します。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2560,19 +2503,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
+          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2593,7 +2532,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>中断バジェットを使用して、予想されるアプリケーションの負荷を処理するために必要な数のポッド レプリカが存在することを確認します。</t>
+          <t>ポッドの水平オートスケーラーを使用して、需要に合わせてポッドをスケーリングします。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2610,19 +2549,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
+          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2643,7 +2578,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>ポッド トポロジの制約を使用して、クラスター全体のノードでポッドを自動的にスケジュールします。</t>
+          <t>中断バジェットを使用して、予想されるアプリケーション負荷を処理するために必要な数のポッドレプリカが存在することを確認します。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2660,19 +2595,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
+          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2683,7 +2614,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化</t>
+          <t>運用管理</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2693,13 +2624,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションの新しいリリースをデプロイするためのブルー/グリーンまたはカナリア戦略を検討してください。</t>
+          <t>ポッド トポロジの制約を使用して、クラスター全体のノードでポッドを自動的にスケジュールします。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2710,7 +2641,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2718,7 +2649,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
+          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2739,7 +2670,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Red Hat OpenShift GitOps の使用を検討してください。Red Hat OpenShift GitOps は Argo CD を使用してクラスタリソースを維持し、アプリケーション CI/CD をサポートします。</t>
+          <t>アプリケーションの新しいリリースをデプロイするためのブルー/グリーンまたはカナリア戦略を検討してください。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2756,7 +2687,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2764,7 +2695,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
+          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2775,23 +2706,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>コントロール プレーン</t>
+          <t>ワークロード</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>クラスターを最新の OpenShift バージョンに維持して、潜在的なセキュリティやアップグレードの問題を回避します。</t>
+          <t>Red Hat OpenShift GitOps の使用を検討してください。Red Hat OpenShift GitOps は Argo CD を使用してクラスターリソースを維持し、アプリケーションの CI/CD をサポートします。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2802,7 +2733,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2810,7 +2741,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
+          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2826,12 +2757,12 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>コントロール プレーン</t>
+          <t>コントロールプレーン</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Azure Red Hat OpenShift クラスターを Azure Arc-enabled Kubernetes に接続します。</t>
+          <t>クラスターを最新の OpenShift バージョンに保ち、潜在的なセキュリティやアップグレードの問題を回避します。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2848,14 +2779,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
+          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2871,18 +2802,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>コントロールプレーン</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Azure Red Hat OpenShift 4 クラスターの場合、etcd データは既定では暗号化されませんが、etcd 暗号化を有効にして、データ セキュリティの別のレイヤーを提供することをお勧めします。</t>
+          <t>Azure Red Hat OpenShift クラスターを Azure Arc 対応 Kubernetes に接続します。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2893,7 +2824,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2901,7 +2832,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
+          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2917,18 +2848,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>姿勢</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Arc 対応 Kubernetes を介してサポートされるコンテナーに対して Microsoft Defender を使用して、クラスター、コンテナー、アプリケーションをセキュリティで保護します。</t>
+          <t>Azure Red Hat OpenShift 4 クラスターの場合、etcd データは既定では暗号化されませんが、etcd 暗号化を有効にして、データ セキュリティの別のレイヤーを提供することをお勧めします。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2939,7 +2870,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2947,7 +2878,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
+          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2963,12 +2894,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>姿勢</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>機密情報へのアクセスが必要なアプリケーションの場合は、サービス プリンシパルと、Arc 対応 Kubernetes クラスターの拡張機能と共に AKV シークレット プロバイダーを使用します。</t>
+          <t>Arc 対応 Kubernetes でサポートされている Microsoft Defender for Containers を使用して、クラスター、コンテナー、アプリケーションをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2985,14 +2916,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
+          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3008,12 +2939,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>ワークロード</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>リソースへのポッド アクセスをセキュリティで保護します。最小限のアクセス許可を提供し、ルートまたは特権エスカレーションの使用を避けます。</t>
+          <t>機密情報へのアクセスを必要とするアプリケーションの場合は、サービス プリンシパルと AKV シークレット プロバイダーを Arc 対応 Kubernetes クラスターの拡張機能と共に使用します。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3030,14 +2961,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
+          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3058,7 +2989,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシー拡張機能を使用して構成を監視および適用します。</t>
+          <t>リソースへのポッド アクセスをセキュリティで保護します。最小限のアクセス許可を提供し、ルートまたは特権エスカレーションの使用を避けます。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3075,7 +3006,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3083,7 +3014,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
+          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3104,13 +3035,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender またはその他のイメージ スキャン ソリューションを使用して、イメージの脆弱性をスキャンします。</t>
+          <t>Azure Policy 拡張機能を使用して構成を監視および適用します。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3121,7 +3052,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3129,7 +3060,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
+          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3150,13 +3081,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Azure コンテナー レジストリの専用インスタンスとプライベート インスタンスを各ランディング ゾーン サブスクリプションにデプロイします。</t>
+          <t>Microsoft Defender またはその他のイメージ スキャン ソリューションを使用して、イメージの脆弱性をスキャンします。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3167,7 +3098,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3175,7 +3106,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3184,16 +3115,45 @@
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>ワークロード</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Azure Container Registry の専用インスタンスとプライベート インスタンスを各ランディング ゾーン サブスクリプションにデプロイします。</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -7177,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7268,7 +7228,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7305,12 +7265,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7337,7 +7297,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7349,7 +7309,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7359,7 +7319,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/aro_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aro_checklist.ja.xlsx
@@ -1059,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1105,7 +1105,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>AAD を使用して、ARO クラスター内のユーザーを認証します。</t>
+          <t>AAD を使用して ARO クラスター内のユーザーを認証します。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1151,7 +1151,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1161,15 +1161,11 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>OpenShift プロジェクトを定義して、RBAC 特権を制限し、クラスター内のワークロードを分離します。</t>
+          <t>AAD 認証を使用する場合は、クラスターから kubeadmin ユーザーを削除します。</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1178,7 +1174,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
+          <t>https://docs.openshift.com/container-platform/4.14/authentication/remove-kubeadmin.html</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1182,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
+          <t>adfec5f9-a82d-46e9-a8d1-5a0c7fed5d15</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1197,7 +1193,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1207,13 +1203,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>OpenShift で必要な RBAC ロールをプロジェクトまたはクラスターのいずれかにスコープで定義します。</t>
+          <t>OpenShift プロジェクトを定義して、RBAC 権限を制限し、クラスター内のワークロードを分離します。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1224,7 +1220,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/projects/working-with-projects.html</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1228,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
+          <t>483835c9-86bb-4291-8155-a11475e39f54</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1243,7 +1239,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1253,7 +1249,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>管理者権限とシークレットアクセス権を持つユーザーの数を最小限に抑えます。</t>
+          <t>OpenShift で必要な RBAC ロールの定義は、プロジェクトまたはクラスターのいずれかにスコープされます。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1266,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://docs.openshift.com/container-platform/4.13/authentication/using-rbac.html</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1274,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
+          <t>0acccd97-9376-4bcd-a375-0ab2ab039da6</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1289,7 +1285,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>特権ロールを持つ ARO ユーザーに対して、AAD で特権 ID 管理を使用します。</t>
+          <t>管理者権限とシークレットアクセス権を持つユーザーの数を最小限に抑えます。</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1316,7 +1312,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1324,7 +1320,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
+          <t>d54d7c89-29db-4107-b532-5ae625ca44e4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1335,23 +1331,23 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>DDoS</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>一元化されたサブスクリプションで Azure Firewall または WAF を使用しない限り、Azure DDoS ネットワーク/IP 保護を使用して、ARO クラスターに使用する仮想ネットワークを保護します</t>
+          <t>特権ロールを持つ ARO ユーザーには、AAD の Privileged Identity Management を使用します。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1362,7 +1358,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1370,7 +1366,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
+          <t>685e2223-ace8-4bb1-8307-ca5f16f154e3</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1381,23 +1377,23 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>DDoS攻撃</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>イングレスを使用するように構成するすべての Web アプリケーションは、TLS 暗号化を使用する必要があり、暗号化されていない HTTP 経由のアクセスを許可しないでください。</t>
+          <t>Azure DDoS Network/IP Protection を使用して、一元化されたサブスクリプションで Azure Firewall または WAF を使用しない限り、ARO クラスターに使用する仮想ネットワークを保護します</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1408,7 +1404,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1416,7 +1412,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>35bda433-24f1-4481-8533-182aa5174269</t>
+          <t>aa369282-9e7e-4216-8836-87af467a1f89</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1427,23 +1423,23 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF を使用して、特に複数リージョン環境で ARO アプリケーションをインターネットに安全に発行します。</t>
+          <t>イングレスを使用するように構成するすべての Web アプリケーションでは、TLS 暗号化を使用する必要があり、暗号化されていない HTTP 経由のアクセスを許可しないでください。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,7 +1450,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/networking/routes/secured-routes.html</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1462,7 +1458,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
+          <t>35bda433-24f1-4481-8533-182aa5174269</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1473,7 +1469,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door を使用して ARO でアプリを公開する場合は、プライベート リンクを使用して Front Door を ARO ルーターに接続します。</t>
+          <t>Azure Front Door と WAF を使用して、特にマルチリージョン環境で ARO アプリケーションをインターネットに安全に発行します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1500,7 +1496,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1508,7 +1504,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
+          <t>44008ae7-d7e4-4743-876c-8bdbf55bce61</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1519,7 +1515,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1529,7 +1525,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ ポリシーで、ARO クラスターで生成されるすべての送信インターネット トラフィックを検査する必要がある場合は、Azure Firewall または NVA を使用してエグレス ネットワーク トラフィックをセキュリティで保護します。</t>
+          <t>Azure Front Door を使用して ARO でアプリを公開する場合は、プライベート リンクを使用して Front Door を ARO ルーターに接続します。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1542,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-secure-openshift-with-front-door</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1550,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>be985190-4838-435c-a86b-b2912155a114</t>
+          <t>9e8a03f9-7879-4424-b626-786d60b96c97</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1565,23 +1561,23 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>プライベートアクセス</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>セキュリティポリシーで OpenShift API にプライベート IP アドレスを使用する必要がある場合は、プライベート ARO クラスターをデプロイします。</t>
+          <t>セキュリティ ポリシーで、ARO クラスターで生成されたすべての送信インターネット トラフィックを検査する必要がある場合は、Azure Firewall または NVA を使用してエグレス ネットワーク トラフィックをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1588,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-restrict-egress</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1596,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
+          <t>be985190-4838-435c-a86b-b2912155a114</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1611,7 +1607,7 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
@@ -1621,13 +1617,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Azure プライベート リンクを使用して、マネージド Azure サービス (Azure コンテナー レジストリを含む) へのネットワーク接続をセキュリティで保護します。</t>
+          <t>セキュリティーポリシーで OpenShift API にプライベート IP アドレスを使用する必要がある場合は、プライベート ARO クラスターをデプロイします。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1638,7 +1634,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-private-cluster-4x</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1646,7 +1642,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
+          <t>75e39f54-0acc-4cd9-9937-6bcda3750ab2</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1657,23 +1653,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>運用管理</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>プライベートアクセス</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>組み込みのPrometheus、OpenShiftロギング、またはコンテナインサイトの統合を使用して監視プロセスを確立します。</t>
+          <t>Azure Private Link を使用して、Azure Container Registry など、マネージド Azure サービスへのネットワーク接続をセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,19 +1680,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
+          <t>ab039da6-d54d-47c8-a29d-b107d5325ae6</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1717,13 +1709,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>DevOps プラクティスと CI/CD ソリューション (OpenShift によって提供されるパイプライン/GitOps など) を通じて、アプリケーション デリバリ プロセスを自動化します。</t>
+          <t>組み込みの Prometheus、OpenShift Logging、または Container Insights 統合を使用して監視プロセスを確立します。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1734,19 +1726,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-enable-arc-enabled-clusters</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
+          <t>25ca44e4-685e-4222-9ace-8bb12307ca5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1767,13 +1755,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、コンテナー内からサービスの状態を削除します。代わりに、マルチリージョン レプリケーションをサポートするサービスとしての Azure プラットフォーム (PaaS) を使用します。</t>
+          <t>DevOps プラクティスと CI/CD ソリューション (OpenShift が提供する Pipelines/GitOps など) を通じて、アプリケーション配信プロセスを自動化します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1784,19 +1772,15 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/pipelines/understanding-openshift-pipelines.html</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
+          <t>16f154e3-aa36-4928-89e7-e216183687af</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1817,7 +1801,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Azure ファイル ストレージ クラスで RWX ストレージを使用します。</t>
+          <t>可能な限り、コンテナー内からサービス状態を削除します。代わりに、複数リージョンのレプリケーションをサポートする Azure のサービスとしてのプラットフォーム (PaaS) を使用します。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1834,19 +1818,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/design-principles/managed-services</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
+          <t>467a1f89-35bd-4a43-924f-14811533182a</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1862,18 +1842,18 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>パフォーマンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>ポッドの要求と制限を使用して、クラスター内のコンピューティング リソースを管理します。</t>
+          <t>組み込みの Azure Files ストレージ クラスで RWX ストレージを使用します。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1884,19 +1864,15 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-storageclass</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
+          <t>1b7da8cf-aa66-4e15-b4d5-ada97dc3e232</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1917,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>プロジェクトにリソース クォータを適用します。</t>
+          <t>ポッドの要求と制限を使用して、クラスター内のコンピューティング リソースを管理します。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1934,7 +1910,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/clusters/nodes-cluster-limit-ranges.html</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1942,7 +1918,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
+          <t>6bb235c7-05e1-4696-bded-fa8a4c8cdec4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1963,13 +1939,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>クラスター自動スケーラーとマシン自動スケーラーを定義して、クラスターのリソースが不足したときにマシンをスケーリングし、より多くのデプロイをサポートします。</t>
+          <t>プロジェクトにリソースクォータを適用します。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1980,19 +1956,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/quotas/quotas-setting-per-project.html</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
+          <t>c620c30c-14ee-4b7f-9ae8-d9b3fec228e7</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2008,12 +1979,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>確実</t>
+          <t>パフォーマンス</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>複数のコンテナインスタンスを含むのに十分な大きさの仮想マシンサイズを使用して、密度を高めるというメリットを享受しますが、クラスターが障害が発生したノードのワークロードを処理できないほど大きくしないでください。</t>
+          <t>ClusterAutoScaler と MachineAutoScaler を定義して、クラスターのリソースが不足したときにマシンをスケーリングし、より多くのデプロイをサポートします。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2030,19 +2001,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/applying-autoscaling.html</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
+          <t>87ab177a-db59-4f6b-a613-334fd09dc234</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2063,7 +2029,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>マシンの正常性チェックを展開して、マシン プール内の損傷したマシンを自動的に修復します。</t>
+          <t>複数のコンテナー インスタンスを格納するのに十分な大きさの仮想マシン サイズを使用して、密度を高めるというメリットを享受できますが、クラスターが障害が発生したノードのワークロードを処理できないほど大きくはありません。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2080,19 +2046,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-policies-v4#supported-virtual-machine-sizes</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
+          <t>19db6128-1269-4040-a4ba-4d3e0804276d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,7 +2074,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>アラート システムを使用して、直接的なアクションが必要な場合に通知を提供します (コンテナー インサイト メトリック アラートまたは組み込みのアラート UI)。</t>
+          <t>マシンの正常性チェックを展開して、マシン プール内の損傷したマシンを自動的に修復します。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2130,19 +2091,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/deploying-machine-health-checks.html</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
+          <t>4b98b15c-8b31-4aa5-aceb-58889135e227</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2163,7 +2119,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>クラスターが AZ をサポートするリージョンに作成されていることを確認し、AZ ごとにマシンセットを作成します。</t>
+          <t>アラート システムを使用して、直接的なアクションが必要なときに通知を提供します (Container Insights メトリック アラートまたは組み込みのアラート UI)。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2180,19 +2136,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
+          <t>896d31b6-6c67-4ba5-a119-c08e8f5d587c</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2213,13 +2164,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>インフラストラクチャコンポーネントを保持するインフラストラクチャマシンセットを作成します。これらのマシンに特定の Kubernetes ラベルを適用し、それらのマシンでのみ実行されるようにインフラストラクチャ コンポーネントを更新します。</t>
+          <t>クラスターが AZ をサポートするリージョンに作成されていることを確認し、AZ ごとにマシンセットを作成します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2230,19 +2181,15 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview#availability-zones</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
+          <t>7e9ced16-acd1-476e-b9b2-41a998a57ae7</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2263,13 +2210,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションのバックアップを作成し、復元を計画し、バックアップに永続ボリュームを含めます。</t>
+          <t>インフラストラクチャ コンポーネントを保持するインフラストラクチャ マシン セットを作成します。これらのマシンに特定の Kubernetes ラベルを適用し、それらのマシンでのみ実行するようにインフラストラクチャ コンポーネントを更新します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2280,19 +2227,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/machine_management/creating-infrastructure-machinesets.html</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
+          <t>7b997e71-1b7d-4a8c-baa6-6e15d4d5ada9</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2313,13 +2256,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>ポッドの優先順位を使用して、リソースが限られている場合に最も重要なポッドが実行されるようにします。</t>
+          <t>アプリケーションのバックアップを作成し、復元を計画し、バックアップに永続ボリュームを含めます。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,7 +2273,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
+          <t>https://learn.microsoft.com/azure/openshift/howto-create-a-backup#create-a-backup-with-velero-to-include-snapshots</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2338,7 +2281,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
+          <t>7dc3e232-6bb2-435c-905e-1696fdedfa8a</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2354,12 +2297,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>確実</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>セキュリティー・ポリシー、リソース制限、または構成要件を適用するために一般的に使用されるアドミッション・プラグインを使用して、クラスター機能を規制します。</t>
+          <t>ポッドの優先順位を使用して、リソースが限られている場合に最も重要なポッドが実行されるようにします。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2376,7 +2319,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-priority.html</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2384,7 +2327,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
+          <t>81c12318-1a64-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2405,7 +2348,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>コンテナー イメージを Azure コンテナー レジストリに格納し、レジストリを各リージョンに geo レプリケートします。</t>
+          <t>セキュリティポリシー、リソース制限、または構成要件を適用するために一般的に使用されるアドミッションプラグインを使用して、クラスタ機能を規制します。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2422,7 +2365,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.openshift.com/container-platform/4.13/architecture/admission-plug-ins.html</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2430,7 +2373,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
+          <t>43166c3b-cbe0-45bb-b209-d4a0da577784</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,18 +2389,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>ワークロード</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>CPU とメモリの要求値を最適化し、垂直ポッド オートスケーラーを使用してクラスター リソースの効率を最大化します。</t>
+          <t>コンテナー イメージを Azure Container Registry に格納し、レジストリを各リージョンに geo レプリケートします。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2468,7 +2411,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2476,7 +2419,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
+          <t>24d21678-5d2f-4a56-a56a-d48408fe8273</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2497,7 +2440,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>正常性プローブをポッドに追加して、アプリケーションの正常性を監視します。ポッドに活性プローブと準備プローブが含まれていることを確認してください。スタートアップ プローブを使用して、アプリケーションが起動した時点を判別します。</t>
+          <t>CPU とメモリの要求値を最適化し、垂直ポッド オートスケーラーを使用してクラスター リソースの効率を最大化します。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2514,7 +2457,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-vertical-autoscaler.html</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2522,7 +2465,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
+          <t>4c486ba2-80dc-4059-8cf7-5ee8e1309ccc</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2543,7 +2486,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>ポッドの水平オートスケーラーを使用して、需要に合わせてポッドをスケーリングします。</t>
+          <t>正常性プローブをポッドに追加して、アプリケーションの正常性を監視します。ポッドに livenessProbe と readinessProbe が含まれていることを確認します。スタートアッププローブを使用して、アプリケーションが起動したポイントを判別します。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2560,19 +2503,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/application-health.html</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
+          <t>d579366b-cda2-4750-aa1a-bfe9d55d14c3</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2593,7 +2532,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>中断バジェットを使用して、予想されるアプリケーションの負荷を処理するために必要な数のポッド レプリカが存在することを確認します。</t>
+          <t>ポッドの水平オートスケーラーを使用して、需要に合わせてポッドをスケーリングします。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2610,19 +2549,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-autoscaling.html</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
+          <t>c4929cb1-b3d1-4325-ae12-4ba34d0685ed</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2643,7 +2578,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>ポッド トポロジの制約を使用して、クラスター全体のノードでポッドを自動的にスケジュールします。</t>
+          <t>中断バジェットを使用して、予想されるアプリケーション負荷を処理するために必要な数のポッドレプリカが存在することを確認します。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2660,19 +2595,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/pods/nodes-pods-configuring.html#nodes-pods-pod-distruption-about_nodes-pods-configuring</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
+          <t>dce9be3b-b0dd-4b3b-95fb-2ec14eeaa359</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2683,7 +2614,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化</t>
+          <t>運用管理</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2693,13 +2624,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションの新しいリリースをデプロイするためのブルー/グリーンまたはカナリア戦略を検討してください。</t>
+          <t>ポッド トポロジの制約を使用して、クラスター全体のノードでポッドを自動的にスケジュールします。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2710,7 +2641,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/nodes/scheduling/nodes-scheduler-pod-topology-spread-constraints.html</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2718,7 +2649,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
+          <t>2829e2ed-b217-4367-9aff-6791b4935ada</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2739,7 +2670,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Red Hat OpenShift GitOps の使用を検討してください。Red Hat OpenShift GitOps は Argo CD を使用してクラスタリソースを維持し、アプリケーション CI/CD をサポートします。</t>
+          <t>アプリケーションの新しいリリースをデプロイするためのブルー/グリーンまたはカナリア戦略を検討してください。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2756,7 +2687,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
+          <t>https://docs.openshift.com/container-platform/4.13/applications/deployments/route-based-deployment-strategies.html</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2764,7 +2695,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
+          <t>42324ece-81c1-4231-a1a6-417415833fb4</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2775,23 +2706,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>コントロール プレーン</t>
+          <t>ワークロード</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>クラスターを最新の OpenShift バージョンに維持して、潜在的なセキュリティやアップグレードの問題を回避します。</t>
+          <t>Red Hat OpenShift GitOps の使用を検討してください。Red Hat OpenShift GitOps は Argo CD を使用してクラスターリソースを維持し、アプリケーションの CI/CD をサポートします。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2802,7 +2733,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
+          <t>https://docs.openshift.com/container-platform/4.13/cicd/gitops/understanding-openshift-gitops.html</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2810,7 +2741,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
+          <t>ae3c2df7-4316-46c3-acbe-05bbe209d4a0</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2826,12 +2757,12 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>コントロール プレーン</t>
+          <t>コントロールプレーン</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Azure Red Hat OpenShift クラスターを Azure Arc-enabled Kubernetes に接続します。</t>
+          <t>クラスターを最新の OpenShift バージョンに保ち、潜在的なセキュリティやアップグレードの問題を回避します。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2848,14 +2779,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
+          <t>https://learn.microsoft.com/azure/openshift/support-lifecycle</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
+          <t>da577784-24d2-4167-a5d2-fa56c56ad484</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2871,18 +2802,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>コントロールプレーン</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Azure Red Hat OpenShift 4 クラスターの場合、etcd データは既定では暗号化されませんが、etcd 暗号化を有効にして、データ セキュリティの別のレイヤーを提供することをお勧めします。</t>
+          <t>Azure Red Hat OpenShift クラスターを Azure Arc 対応 Kubernetes に接続します。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2893,7 +2824,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/quickstart-connect-cluster</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2901,7 +2832,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
+          <t>08fe8273-4c48-46ba-880d-c0591cf75ee8</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2917,18 +2848,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>姿勢</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Arc 対応 Kubernetes を介してサポートされるコンテナーに対して Microsoft Defender を使用して、クラスター、コンテナー、アプリケーションをセキュリティで保護します。</t>
+          <t>Azure Red Hat OpenShift 4 クラスターの場合、etcd データは既定では暗号化されませんが、etcd 暗号化を有効にして、データ セキュリティの別のレイヤーを提供することをお勧めします。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2939,7 +2870,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://docs.openshift.com/container-platform/4.10/security/encrypting-etcd.html</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2947,7 +2878,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
+          <t>e1309ccc-d579-4366-acda-2750aa1abfe9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2963,12 +2894,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>姿勢</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>機密情報へのアクセスが必要なアプリケーションの場合は、サービス プリンシパルと、Arc 対応 Kubernetes クラスターの拡張機能と共に AKV シークレット プロバイダーを使用します。</t>
+          <t>Arc 対応 Kubernetes でサポートされている Microsoft Defender for Containers を使用して、クラスター、コンテナー、アプリケーションをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2985,14 +2916,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
+          <t>d55d14c3-c492-49cb-8b3d-1325ae124ba3</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3008,12 +2939,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>ワークロード</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>リソースへのポッド アクセスをセキュリティで保護します。最小限のアクセス許可を提供し、ルートまたは特権エスカレーションの使用を避けます。</t>
+          <t>機密情報へのアクセスを必要とするアプリケーションの場合は、サービス プリンシパルと AKV シークレット プロバイダーを Arc 対応 Kubernetes クラスターの拡張機能と共に使用します。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3030,14 +2961,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
+          <t>https://learn.microsoft.com/azure/azure-arc/kubernetes/tutorial-akv-secrets-provider</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
+          <t>4d0685ed-dce9-4be3-ab0d-db3b55fb2ec1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3058,7 +2989,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシー拡張機能を使用して構成を監視および適用します。</t>
+          <t>リソースへのポッド アクセスをセキュリティで保護します。最小限のアクセス許可を提供し、ルートまたは特権エスカレーションの使用を避けます。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3075,7 +3006,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/developer-best-practices-pod-security#secure-pod-access-to-resources</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3083,7 +3014,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
+          <t>4eeaa359-2829-4e2e-bb21-73676aff6791</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3104,13 +3035,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender またはその他のイメージ スキャン ソリューションを使用して、イメージの脆弱性をスキャンします。</t>
+          <t>Azure Policy 拡張機能を使用して構成を監視および適用します。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3121,7 +3052,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes#install-azure-policy-extension-for-azure-arc-enabled-kubernetes</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3129,7 +3060,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
+          <t>b4935ada-4232-44ec-b81c-123181a64174</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3150,13 +3081,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Azure コンテナー レジストリの専用インスタンスとプライベート インスタンスを各ランディング ゾーン サブスクリプションにデプロイします。</t>
+          <t>Microsoft Defender またはその他のイメージ スキャン ソリューションを使用して、イメージの脆弱性をスキャンします。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3167,7 +3098,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3175,7 +3106,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+          <t>15833fb4-ae3c-42df-9431-66c3bcbe05bb</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3184,16 +3115,45 @@
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>ワークロード</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Azure Container Registry の専用インスタンスとプライベート インスタンスを各ランディング ゾーン サブスクリプションにデプロイします。</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/container-registry/container-registry-private-link</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>e209d4a0-da57-4778-924d-216785d2fa56</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -7177,7 +7137,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7268,7 +7228,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7305,12 +7265,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7337,7 +7297,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7349,7 +7309,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>リスクの受け入れ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7359,7 +7319,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
